--- a/Data sets/Monthly Covid-19 cases.xlsx
+++ b/Data sets/Monthly Covid-19 cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbui1\group-project-group-23\Data sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbui1\Github-repository\Data sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB093F13-5673-4E73-A9B9-F898F1FA20E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1737089-41FC-4313-AA54-A29E49E6D41F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{942E80A7-E28C-4204-BEA7-7A04EF3336B8}"/>
   </bookViews>
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72594469-5AB3-451E-9DC6-EA39C56DA3C1}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -731,6 +731,134 @@
         <v>7286</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>44075</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>165</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>898</v>
+      </c>
+      <c r="I10" s="1">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>44105</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>206</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>155</v>
+      </c>
+      <c r="I11" s="1">
+        <v>83</v>
+      </c>
+      <c r="J11" s="1">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>44136</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>166</v>
+      </c>
+      <c r="D12" s="1">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>55</v>
+      </c>
+      <c r="J12" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>44166</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>368</v>
+      </c>
+      <c r="D13" s="1">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>43</v>
+      </c>
+      <c r="I13" s="1">
+        <v>48</v>
+      </c>
+      <c r="J13" s="1">
+        <v>548</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
